--- a/medicine/Psychotrope/Brouwerij_'t_IJ/Brouwerij_'t_IJ.xlsx
+++ b/medicine/Psychotrope/Brouwerij_'t_IJ/Brouwerij_'t_IJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brouwerij_%27t_IJ</t>
+          <t>Brouwerij_'t_IJ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Brouwerij 't IJ (« Brasserie de l'IJ » en néerlandais) est une petite brasserie de la ville d'Amsterdam, aux Pays-Bas. Elle est située depuis 1985 dans d'anciens bains publics, à proximité immédiate de l'un des derniers moulins de la ville, De Gooyer. Elle fut établie en 1983 par Kaspar Peterson, un ancien musicien sur le modèle de plusieurs petites brasseries indépendantes, créées en réponse au désamour des consommateurs pour les bières des brasseries multinationales[1]. Les bières de la marque sont vendues comme produit local dans de nombreux bars et magasins de la ville. L'établissement propose également régulièrement des dégustations.
-Le logo de la brasserie représente une autruche avec un œuf, ainsi qu'un moulin à vent en arrière-plan. L'établissement, dont la capacité dépasse les 200 000 litres par an[2] tire son nom du lac de l'IJ qui est situé à proximité.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Brouwerij 't IJ (« Brasserie de l'IJ » en néerlandais) est une petite brasserie de la ville d'Amsterdam, aux Pays-Bas. Elle est située depuis 1985 dans d'anciens bains publics, à proximité immédiate de l'un des derniers moulins de la ville, De Gooyer. Elle fut établie en 1983 par Kaspar Peterson, un ancien musicien sur le modèle de plusieurs petites brasseries indépendantes, créées en réponse au désamour des consommateurs pour les bières des brasseries multinationales. Les bières de la marque sont vendues comme produit local dans de nombreux bars et magasins de la ville. L'établissement propose également régulièrement des dégustations.
+Le logo de la brasserie représente une autruche avec un œuf, ainsi qu'un moulin à vent en arrière-plan. L'établissement, dont la capacité dépasse les 200 000 litres par an tire son nom du lac de l'IJ qui est situé à proximité.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brouwerij_%27t_IJ</t>
+          <t>Brouwerij_'t_IJ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,24 +524,129 @@
           <t>Gamme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le catalogue de la brasserie se compose de huit bières standard[3], trois bières saisonnières[4] ainsi que plusieurs éditions limitées. 
-Bières standard
-Plzeň, 5 %
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le catalogue de la brasserie se compose de huit bières standard, trois bières saisonnières ainsi que plusieurs éditions limitées. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brouwerij_'t_IJ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouwerij_%27t_IJ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Gamme</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bières standard</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Plzeň, 5 %
 Natte, 6,5 %, biologique
 Zatte, 8 %, biologique
 IJwit, 6,5 %, blanche
 Columbus 9 %, biologique, ambrée de préparation « spéciale » comportant beaucoup de houblon et un taux élevé d'alcool
 Struis 9 %, biologique: pleine et sucrée, de couleur sombre
 I.P.A. 7 %, de type India Pale Ale avec un goût de houblon fruité et amer
-Flink 4,7 %.
-Bières saisonnières
-PaasIJ, 7 %, bière de printemps: de couleur claire et au goût doux
+Flink 4,7 %.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brouwerij_'t_IJ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouwerij_%27t_IJ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Gamme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bières saisonnières</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PaasIJ, 7 %, bière de printemps: de couleur claire et au goût doux
 IJbok, 6,5 %, bière d’automne: sombre, et au goût sec
-IJndejaars, 9 %, bière d'hiver brune, de couleur ambrée et au goût légèrement épicé.
-Éditions limitées
-Speciale Vlo, 7 %.
+IJndejaars, 9 %, bière d'hiver brune, de couleur ambrée et au goût légèrement épicé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brouwerij_'t_IJ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouwerij_%27t_IJ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Gamme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Éditions limitées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Speciale Vlo, 7 %.
 Ciel Bleu I.P.A., 7 %
 No. 1, 5,8 %
 Bulderbos Bier
